--- a/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/GIC-DIR-Practica2-e2-VLANs_v5b.xlsx
+++ b/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/GIC-DIR-Practica2-e2-VLANs_v5b.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_EC9E9A4777CEEC9237537999B1744747E06F2D88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2771ED10-4D55-4848-A71B-6BB066AC30DE}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="11_EC9E9A4777CEEC9237537999B1744747E06F2D88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D879B64-203C-494D-9B40-B614998EB04D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
     <sheet name="Switches" sheetId="2" r:id="rId2"/>
     <sheet name="Administración" sheetId="3" r:id="rId3"/>
+    <sheet name="Informes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="155">
   <si>
     <t>Depts.</t>
   </si>
@@ -440,13 +441,79 @@
   </si>
   <si>
     <t>Le pongo /24 para que haya direcciones de sobra ya que uso un subdominio único para la red de administración</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>10.2.0.1 ???</t>
+  </si>
+  <si>
+    <t>He configurado dos terminales de mismo departamento (VLAN) con IP's estáticas y de diferente departamento para comprobar si funciona la conexión entre distintas VLANs (enlace 3). El paquete ICMP se transmite con éxito entre los PC 1A01 e 1C01.</t>
+  </si>
+  <si>
+    <t>También voy a suponer que los departamentos 102 y 104 tienen más tráfico de lo normal por lo que voy a balancear el spanning-tree configurando como root para cada uno un core distinto. Para la VLAN 104 el Core Switch 1 y para la 102 el Core Switch 2, y las 4 VLANs restantes las divido dos a uno y dos a otro (indistintamente, el tráfico voy a suponer que es menor y queda el tráfico lo más equilibrado posible).</t>
+  </si>
+  <si>
+    <t>ROUTING IP</t>
+  </si>
+  <si>
+    <t>Para el resto de posibles VLANs (que actualmente no están creadas) las configuro para el RP-Core2 como root primary del spanning tree por si en un futuro se declarasen las VLANs que tengan un core switch establecido como root del grafo.</t>
+  </si>
+  <si>
+    <t>He configurado el Router para que el protocolo DHCP excluya las IP's pertenecientes a las gateways (IP del Router) para cada VLAN.</t>
+  </si>
+  <si>
+    <t>DATA CENTER</t>
+  </si>
+  <si>
+    <t>He añadido algunas modificaciones en la parte de red física (faltaba denominar algunos racks y algunos nombres estaban mal puestos como la asignación de número de piso)</t>
+  </si>
+  <si>
+    <t>He añadido las VLAN's del Data Center mediante el protocolo VTP (las añadí únicamente en el máster de VTP RP-Core1)</t>
+  </si>
+  <si>
+    <t>He configurado el STP en el Data Center para que se use el modo Rapid PVST y el portfast como default</t>
+  </si>
+  <si>
+    <t>Puertos configurados como enlaces access a los VLANS correspondientes.</t>
+  </si>
+  <si>
+    <t>Configuré las direcciones IP's estáticas de las interfaces de servidores.</t>
+  </si>
+  <si>
+    <t>Por último he configurado las subinterfaces en el router para conectar las VLANs</t>
+  </si>
+  <si>
+    <t>De paso he configurado los terminales para que soliciten mediante el protocolo DHCP su IP.</t>
+  </si>
+  <si>
+    <t>RED DE ADMINISTRACIÓN</t>
+  </si>
+  <si>
+    <t>He añadido un switch redundante como DC-Core2 para que haya dos cores en el data center.</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN GENÉRICA DE SWITCHES</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN GENÉRICA DE DATA CENTER</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN DEPARTAMENTOS Y VLAN'S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +562,45 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -556,7 +662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1073,11 +1179,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,36 +1292,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,7 +1302,82 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,14 +1407,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1288,6 +1448,103 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1424700</xdr:colOff>
+      <xdr:row>1048551</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1425060</xdr:colOff>
+      <xdr:row>1048551</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2499120" y="191760058380"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2493000" y="191760052260"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-04-25T07:44:47.390"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1581,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU54"/>
+  <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,815 +1860,832 @@
     <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+    </row>
+    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="52"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="M2" s="52"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B3" s="26">
         <v>537</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D3" s="24">
         <v>102</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E3" s="24">
         <v>1024</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G3" s="30" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="J2" s="22">
-        <v>32</v>
-      </c>
-      <c r="K2" s="18">
-        <f>POWER(2,32-J2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="19">
-        <f>MAX(K2-2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="27">
-        <v>701</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="25">
-        <v>104</v>
-      </c>
-      <c r="E3" s="25">
-        <v>1024</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="16"/>
       <c r="J3" s="22">
-        <f>J2-1</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K18" si="0">POWER(2,32-J3)</f>
-        <v>2</v>
+        <f>POWER(2,32-J3)</f>
+        <v>1</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" ref="L3:L18" si="1">K3-2</f>
+        <f>MAX(K3-2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="27">
-        <v>383</v>
+        <v>701</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="25">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="25">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="16"/>
       <c r="J4" s="22">
         <f>J3-1</f>
+        <v>31</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" ref="K4:K19" si="0">POWER(2,32-J4)</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="19">
+        <f t="shared" ref="L4:L19" si="1">K4-2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="27">
+        <v>383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="25">
+        <v>101</v>
+      </c>
+      <c r="E5" s="25">
+        <v>512</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="J5" s="22">
+        <f>J4-1</f>
         <v>30</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K5" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L5" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B6" s="27">
         <v>230</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D6" s="25">
         <v>103</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E6" s="25">
         <v>256</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="J5" s="22">
-        <f t="shared" ref="J5:J18" si="2">J4-1</f>
+      <c r="H6" s="29"/>
+      <c r="J6" s="22">
+        <f t="shared" ref="J6:J19" si="2">J5-1</f>
         <v>29</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K6" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L6" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="27">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="25">
-        <v>100</v>
-      </c>
-      <c r="E6" s="25">
-        <v>128</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="J6" s="22">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L6" s="19">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="27">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="25">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E7" s="25">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="16"/>
       <c r="J7" s="22">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>107</v>
+      <c r="A8" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="27">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="D8" s="25">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E8" s="25">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>133</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="16"/>
       <c r="J8" s="22">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="27">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="25">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25">
+        <v>256</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="J9" s="22">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="17"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="16"/>
       <c r="J10" s="22">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="17"/>
       <c r="J11" s="22">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
       <c r="J12" s="22">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>1022</v>
-      </c>
-      <c r="P12" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="50">
-        <v>1</v>
-      </c>
-      <c r="R12" s="50">
-        <v>1</v>
-      </c>
-      <c r="S12" s="50">
-        <v>1</v>
-      </c>
-      <c r="T12" s="50">
-        <v>1</v>
-      </c>
-      <c r="U12" s="50">
-        <v>1</v>
-      </c>
-      <c r="V12" s="50">
-        <v>1</v>
-      </c>
-      <c r="W12" s="51">
-        <v>1</v>
-      </c>
-      <c r="X12" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="51">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="49">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="51">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="49">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="51">
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="J13" s="22">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="0"/>
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="1"/>
-        <v>2046</v>
+        <v>1022</v>
+      </c>
+      <c r="P13" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>1</v>
+      </c>
+      <c r="R13" s="50">
+        <v>1</v>
+      </c>
+      <c r="S13" s="50">
+        <v>1</v>
+      </c>
+      <c r="T13" s="50">
+        <v>1</v>
+      </c>
+      <c r="U13" s="50">
+        <v>1</v>
+      </c>
+      <c r="V13" s="50">
+        <v>1</v>
+      </c>
+      <c r="W13" s="51">
+        <v>1</v>
+      </c>
+      <c r="X13" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="51">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="49">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="51">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="49">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="51">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="J14" s="22">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="1"/>
-        <v>4094</v>
-      </c>
-      <c r="N14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14">
-        <f>COUNTIF(P12:AU12,"=1")</f>
-        <v>22</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
       <c r="J15" s="22">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="1"/>
-        <v>8190</v>
+        <v>4094</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15">
+        <f>COUNTIF(P13:AU13,"=1")</f>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
       <c r="J16" s="22">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="1"/>
-        <v>16382</v>
-      </c>
-      <c r="S16" s="33"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="0"/>
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+      <c r="S17" s="33"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J18" s="22">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" si="1"/>
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="23">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K19" s="20">
         <f t="shared" si="0"/>
         <v>65536</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L19" s="21">
         <f t="shared" si="1"/>
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D22" s="94"/>
+    </row>
+    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B25" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F25" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H25" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B26" s="34" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34">
-        <v>150</v>
-      </c>
-      <c r="E25" s="34">
-        <v>512</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="34">
         <v>512</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="34">
         <v>512</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
-        <v>52</v>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="34">
         <v>512</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E29" s="34">
         <v>512</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" s="34">
         <v>512</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36">
-        <v>160</v>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34">
+        <v>155</v>
       </c>
       <c r="E31" s="34">
         <v>512</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36">
+        <v>160</v>
+      </c>
+      <c r="E32" s="34">
+        <v>512</v>
+      </c>
+      <c r="F32" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="42"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
       <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D34" s="33"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="33"/>
+    </row>
+    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B39" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C39" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D39" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E39" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F39" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G39" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H39" s="40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="34">
-        <v>0</v>
-      </c>
-      <c r="C39" s="34">
-        <v>1</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="34">
         <v>0</v>
@@ -2421,19 +2695,19 @@
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F40" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>74</v>
       </c>
       <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="34">
         <v>0</v>
@@ -2445,13 +2719,17 @@
       <c r="E41" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="F41" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
-        <v>79</v>
+      <c r="A42" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="B42" s="34">
         <v>0</v>
@@ -2465,17 +2743,17 @@
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="44"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
-        <v>80</v>
+      <c r="A43" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="B43" s="34">
+        <v>0</v>
+      </c>
+      <c r="C43" s="34">
         <v>1</v>
-      </c>
-      <c r="C43" s="34">
-        <v>2</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
@@ -2483,11 +2761,11 @@
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="42"/>
+      <c r="H43" s="44"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="34">
         <v>1</v>
@@ -2504,50 +2782,50 @@
       <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="34">
+        <v>1</v>
+      </c>
+      <c r="C45" s="34">
+        <v>2</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="42"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B46" s="36">
         <v>2</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C46" s="36">
         <v>3</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36" t="s">
+      <c r="D46" s="36"/>
+      <c r="E46" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="42"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="34">
-        <v>2</v>
-      </c>
-      <c r="C46" s="34">
-        <v>3</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="34">
-        <v>0</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C47" s="34">
+        <v>3</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34" t="s">
@@ -2558,44 +2836,44 @@
       <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="37">
+      <c r="A48" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="34">
         <v>0</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="34">
+      <c r="A49" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="37">
         <v>0</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34" t="s">
+      <c r="D49" s="36"/>
+      <c r="E49" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="34">
         <v>0</v>
@@ -2613,7 +2891,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="34">
         <v>0</v>
@@ -2631,7 +2909,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="34">
         <v>0</v>
@@ -2649,7 +2927,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="34">
         <v>0</v>
@@ -2667,7 +2945,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="34">
         <v>0</v>
@@ -2683,15 +2961,36 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="34">
+        <v>0</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="42"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
-    <sortCondition descending="1" ref="E2:E10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+    <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="A12:C12"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2703,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2716,17 +3015,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
@@ -2909,17 +3208,17 @@
       <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
@@ -3082,7 +3381,7 @@
       <c r="B27" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="34" t="s">
         <v>105</v>
       </c>
       <c r="D27" s="57"/>
@@ -3093,17 +3392,17 @@
       <c r="I27" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
@@ -3277,17 +3576,17 @@
       <c r="I40" s="58"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
     </row>
     <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="59" t="s">
@@ -3476,7 +3775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1271B7-000A-49F5-8C1D-A2AA509E013E}">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3487,24 +3786,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="63" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -3515,10 +3814,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="58" t="s">
@@ -3529,10 +3828,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="58" t="s">
@@ -3543,10 +3842,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="58" t="s">
@@ -3557,10 +3856,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="58" t="s">
@@ -3571,10 +3870,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="58" t="s">
@@ -3585,10 +3884,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3599,10 +3898,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -3613,10 +3912,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="58" t="s">
@@ -3627,10 +3926,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -3641,10 +3940,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -3655,10 +3954,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -3669,10 +3968,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -3683,37 +3982,186 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1048576" s="74"/>
+      <c r="B1048576" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA94E99B-CA0B-4C07-8FA7-549563AE3B13}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="125.77734375" style="84" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="79"/>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="89"/>
+      <c r="B3" s="90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="81">
+        <v>45392</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="81">
+        <v>45392</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="81">
+        <v>45392</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="85">
+        <v>45393</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="85">
+        <v>45397</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="85">
+        <v>45397</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="85">
+        <v>45397</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="85">
+        <v>45397</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="85">
+        <v>45398</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="85">
+        <v>45398</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="85">
+        <v>45398</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="85">
+        <v>45400</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/GIC-DIR-Practica2-e2-VLANs_v5b.xlsx
+++ b/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/GIC-DIR-Practica2-e2-VLANs_v5b.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="11_EC9E9A4777CEEC9237537999B1744747E06F2D88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D879B64-203C-494D-9B40-B614998EB04D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Administración" sheetId="3" r:id="rId3"/>
     <sheet name="Informes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="156">
   <si>
     <t>Depts.</t>
   </si>
@@ -504,12 +498,15 @@
   </si>
   <si>
     <t>INFORMACIÓN DEPARTAMENTOS Y VLAN'S</t>
+  </si>
+  <si>
+    <t>He cambiado los switches Switch-PT Empty configurándolos justo igual que antes para arreglar el problema de corrupción del archivo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1302,6 +1299,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1329,55 +1369,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,7 +1418,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,14 +1462,14 @@
       <xdr:row>1048551</xdr:row>
       <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1485,7 +1482,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Entrada de lápiz 1">
@@ -1547,14 +1544,10 @@
 </inkml:ink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1592,7 +1585,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1664,7 +1657,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1837,42 +1830,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" customWidth="1"/>
-    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+    </row>
+    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1901,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -1943,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2015,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
@@ -2051,7 +2044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
@@ -2087,7 +2080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
@@ -2123,7 +2116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>107</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2179,7 +2172,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2201,7 +2194,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2215,12 +2208,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
       <c r="J13" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2330,12 +2323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
       <c r="J14" s="22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2349,12 +2342,12 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
       <c r="J15" s="22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2375,12 +2368,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
       <c r="J16" s="22">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2394,7 +2387,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2409,7 +2402,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2423,7 +2416,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2437,22 +2430,22 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D22" s="94"/>
-    </row>
-    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="92" t="s">
+    <row r="22" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D22" s="82"/>
+    </row>
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>40</v>
       </c>
@@ -2476,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>42</v>
       </c>
@@ -2498,7 +2491,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>46</v>
       </c>
@@ -2518,7 +2511,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>49</v>
       </c>
@@ -2538,7 +2531,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>52</v>
       </c>
@@ -2560,7 +2553,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>56</v>
       </c>
@@ -2580,7 +2573,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>59</v>
       </c>
@@ -2600,7 +2593,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>62</v>
       </c>
@@ -2622,7 +2615,7 @@
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2632,7 +2625,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2642,22 +2635,22 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="92" t="s">
+    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>66</v>
       </c>
@@ -2683,7 +2676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>72</v>
       </c>
@@ -2705,7 +2698,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>76</v>
       </c>
@@ -2727,7 +2720,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>78</v>
       </c>
@@ -2745,7 +2738,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>79</v>
       </c>
@@ -2763,7 +2756,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>80</v>
       </c>
@@ -2781,7 +2774,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>81</v>
       </c>
@@ -2799,7 +2792,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>82</v>
       </c>
@@ -2817,7 +2810,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>83</v>
       </c>
@@ -2835,7 +2828,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>84</v>
       </c>
@@ -2853,7 +2846,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>85</v>
       </c>
@@ -2871,7 +2864,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>86</v>
       </c>
@@ -2889,7 +2882,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>87</v>
       </c>
@@ -2907,7 +2900,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>88</v>
       </c>
@@ -2925,7 +2918,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>89</v>
       </c>
@@ -2943,7 +2936,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>90</v>
       </c>
@@ -2961,7 +2954,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>91</v>
       </c>
@@ -2980,17 +2973,17 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+  <sortState ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2999,33 +2992,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
@@ -3048,7 +3041,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>96</v>
       </c>
@@ -3065,7 +3058,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>97</v>
       </c>
@@ -3082,7 +3075,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>98</v>
       </c>
@@ -3099,7 +3092,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>99</v>
       </c>
@@ -3112,7 +3105,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>100</v>
       </c>
@@ -3125,7 +3118,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>101</v>
       </c>
@@ -3138,7 +3131,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>102</v>
       </c>
@@ -3151,7 +3144,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>103</v>
       </c>
@@ -3168,7 +3161,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>104</v>
       </c>
@@ -3185,7 +3178,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>105</v>
       </c>
@@ -3202,23 +3195,23 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A16" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
@@ -3241,7 +3234,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>96</v>
       </c>
@@ -3258,7 +3251,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>97</v>
       </c>
@@ -3275,7 +3268,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>98</v>
       </c>
@@ -3288,7 +3281,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>99</v>
       </c>
@@ -3301,7 +3294,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>100</v>
       </c>
@@ -3314,7 +3307,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>101</v>
       </c>
@@ -3327,7 +3320,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>102</v>
       </c>
@@ -3340,7 +3333,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>103</v>
       </c>
@@ -3357,7 +3350,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>104</v>
       </c>
@@ -3374,7 +3367,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>105</v>
       </c>
@@ -3391,18 +3384,18 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A29" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
@@ -3425,7 +3418,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>96</v>
       </c>
@@ -3442,7 +3435,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>97</v>
       </c>
@@ -3455,7 +3448,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>98</v>
       </c>
@@ -3468,7 +3461,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>99</v>
       </c>
@@ -3481,7 +3474,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>100</v>
       </c>
@@ -3494,7 +3487,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>101</v>
       </c>
@@ -3507,7 +3500,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>102</v>
       </c>
@@ -3524,7 +3517,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>103</v>
       </c>
@@ -3541,7 +3534,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>104</v>
       </c>
@@ -3558,7 +3551,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>105</v>
       </c>
@@ -3575,18 +3568,18 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
+    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A42" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
     </row>
     <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="59" t="s">
@@ -3609,7 +3602,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>96</v>
       </c>
@@ -3626,7 +3619,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>97</v>
       </c>
@@ -3639,7 +3632,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>98</v>
       </c>
@@ -3652,7 +3645,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>99</v>
       </c>
@@ -3665,7 +3658,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>100</v>
       </c>
@@ -3678,7 +3671,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>101</v>
       </c>
@@ -3691,7 +3684,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>102</v>
       </c>
@@ -3708,7 +3701,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>103</v>
       </c>
@@ -3725,7 +3718,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>104</v>
       </c>
@@ -3742,7 +3735,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>105</v>
       </c>
@@ -3772,17 +3765,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1271B7-000A-49F5-8C1D-A2AA509E013E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -3799,7 +3792,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>72</v>
       </c>
@@ -3813,7 +3806,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>76</v>
       </c>
@@ -3827,7 +3820,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>78</v>
       </c>
@@ -3841,7 +3834,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>79</v>
       </c>
@@ -3855,7 +3848,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>80</v>
       </c>
@@ -3869,7 +3862,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>81</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>82</v>
       </c>
@@ -3897,7 +3890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>83</v>
       </c>
@@ -3911,7 +3904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>84</v>
       </c>
@@ -3925,7 +3918,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>85</v>
       </c>
@@ -3939,7 +3932,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>86</v>
       </c>
@@ -3953,7 +3946,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>88</v>
       </c>
@@ -3967,7 +3960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>90</v>
       </c>
@@ -3981,13 +3974,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="64"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>125</v>
       </c>
@@ -3997,7 +3990,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>110</v>
       </c>
@@ -4007,7 +4000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4018,147 +4011,210 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA94E99B-CA0B-4C07-8FA7-549563AE3B13}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="80" customWidth="1"/>
-    <col min="2" max="2" width="125.77734375" style="84" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
+    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="78" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90" t="s">
+    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
         <v>45392</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="72" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
         <v>45392</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="73" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="81">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="71">
         <v>45392</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="73" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="85">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="75">
         <v>45393</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="73" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86" t="s">
+    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="85">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
         <v>45397</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="73" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="85">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
         <v>45397</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="85">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="75">
         <v>45397</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="73" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="85">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="75">
         <v>45397</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="73" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="85">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
         <v>45398</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="73" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="85">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
         <v>45398</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="73" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="85">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="75">
         <v>45398</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="73" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86" t="s">
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="85">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
         <v>45400</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="73" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="91"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
+        <v>45408</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
+      <c r="B19" s="81"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="75"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="75"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="75"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="75"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="75"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="75"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="75"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="75"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="75"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/GIC-DIR-Practica2-e2-VLANs_v5b.xlsx
+++ b/DIR/Proyecto/P1-e5b Red de administración/GIC-DIR-Práctica1-e5b/GIC-DIR-Practica2-e2-VLANs_v5b.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="157">
   <si>
     <t>Depts.</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>He cambiado los switches Switch-PT Empty configurándolos justo igual que antes para arreglar el problema de corrupción del archivo.</t>
+  </si>
+  <si>
+    <t>Todos los switches con la configuración inicial y en la VLAN de administración. Se puede conectar mediante ssh a ellos.</t>
   </si>
 </sst>
 </file>
@@ -1339,6 +1342,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,9 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,7 +1421,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1472,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1854,16 +1857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2209,11 +2212,11 @@
       </c>
     </row>
     <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
       <c r="J13" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2324,11 +2327,11 @@
       </c>
     </row>
     <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
       <c r="J14" s="22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2343,11 +2346,11 @@
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
       <c r="J15" s="22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2369,11 +2372,11 @@
       </c>
     </row>
     <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="J16" s="22">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2434,16 +2437,16 @@
       <c r="D22" s="82"/>
     </row>
     <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
     </row>
     <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
@@ -2639,18 +2642,18 @@
       <c r="D35" s="33"/>
     </row>
     <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>66</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>72</v>
       </c>
@@ -2698,7 +2701,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>76</v>
       </c>
@@ -2720,7 +2723,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>78</v>
       </c>
@@ -2738,7 +2741,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>79</v>
       </c>
@@ -2756,7 +2759,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>80</v>
       </c>
@@ -3619,7 +3622,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>97</v>
       </c>
@@ -3632,7 +3635,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>98</v>
       </c>
@@ -3645,7 +3648,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>99</v>
       </c>
@@ -3658,7 +3661,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>100</v>
       </c>
@@ -3671,7 +3674,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>101</v>
       </c>
@@ -3684,7 +3687,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>102</v>
       </c>
@@ -3701,7 +3704,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>103</v>
       </c>
@@ -3775,7 +3778,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4159,8 +4163,12 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="75">
+        <v>45409</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
